--- a/AutoCmdb/%E9%A1%9E%E5%9E%8B.xlsx
+++ b/AutoCmdb/%E9%A1%9E%E5%9E%8B.xlsx
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -522,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
